--- a/HNO_increase_June-July.xlsx
+++ b/HNO_increase_June-July.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,16 @@
           <t>pc_increase_deaths</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CFR_june</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>CFR_july</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -497,22 +507,28 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.96039603960396</v>
+        <v>13.86138613861386</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.97029702970297</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.608695652173913</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +541,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27878</v>
+        <v>29143</v>
       </c>
       <c r="D3" t="n">
-        <v>548</v>
+        <v>598</v>
       </c>
       <c r="E3" t="n">
-        <v>34740</v>
+        <v>35727</v>
       </c>
       <c r="F3" t="n">
-        <v>1045</v>
+        <v>1190</v>
       </c>
       <c r="G3" t="n">
-        <v>6862</v>
+        <v>6584</v>
       </c>
       <c r="H3" t="n">
-        <v>24.6143912762752</v>
+        <v>22.592046117421</v>
       </c>
       <c r="I3" t="n">
-        <v>497</v>
+        <v>592</v>
       </c>
       <c r="J3" t="n">
-        <v>90.69343065693431</v>
+        <v>98.99665551839465</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.051950725731737</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.330814230134072</v>
       </c>
     </row>
     <row r="4">
@@ -559,28 +581,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>525</v>
+        <v>779</v>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>359</v>
+        <v>603</v>
       </c>
       <c r="H4" t="n">
-        <v>216.2650602409638</v>
+        <v>342.6136363636364</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>225</v>
+        <v>233.3333333333333</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.113636363636364</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.851091142490373</v>
       </c>
     </row>
     <row r="5">
@@ -593,28 +621,34 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35552</v>
+        <v>41204</v>
       </c>
       <c r="D5" t="n">
-        <v>929</v>
+        <v>992</v>
       </c>
       <c r="E5" t="n">
-        <v>103265</v>
+        <v>130774</v>
       </c>
       <c r="F5" t="n">
-        <v>1926</v>
+        <v>2426</v>
       </c>
       <c r="G5" t="n">
-        <v>67713</v>
+        <v>89570</v>
       </c>
       <c r="H5" t="n">
-        <v>190.4618586858686</v>
+        <v>217.381807591496</v>
       </c>
       <c r="I5" t="n">
-        <v>997</v>
+        <v>1434</v>
       </c>
       <c r="J5" t="n">
-        <v>107.3196986006459</v>
+        <v>144.5564516129032</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.407533249199107</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.85510881367856</v>
       </c>
     </row>
     <row r="6">
@@ -627,28 +661,34 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="H6" t="n">
-        <v>158.6538461538461</v>
+        <v>127.7777777777778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3048780487804878</v>
       </c>
     </row>
     <row r="7">
@@ -661,28 +701,34 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>597</v>
+        <v>765</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>1378</v>
+        <v>1690</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G7" t="n">
-        <v>781</v>
+        <v>925</v>
       </c>
       <c r="H7" t="n">
-        <v>130.820770519263</v>
+        <v>120.9150326797386</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
-        <v>136.3636363636363</v>
+        <v>161.5384615384615</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.699346405228758</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.011834319526627</v>
       </c>
     </row>
     <row r="8">
@@ -695,28 +741,34 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D8" t="n">
         <v>53</v>
       </c>
       <c r="E8" t="n">
-        <v>1036</v>
+        <v>1065</v>
       </c>
       <c r="F8" t="n">
         <v>53</v>
       </c>
       <c r="G8" t="n">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="H8" t="n">
-        <v>15.23915461624027</v>
+        <v>18.20199778024417</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.976525821596244</v>
       </c>
     </row>
     <row r="9">
@@ -729,28 +781,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>102292</v>
+        <v>112306</v>
       </c>
       <c r="D9" t="n">
-        <v>1343</v>
+        <v>1464</v>
       </c>
       <c r="E9" t="n">
-        <v>186894</v>
+        <v>210510</v>
       </c>
       <c r="F9" t="n">
-        <v>2391</v>
+        <v>2709</v>
       </c>
       <c r="G9" t="n">
-        <v>84602</v>
+        <v>98204</v>
       </c>
       <c r="H9" t="n">
-        <v>82.70636999960897</v>
+        <v>87.44323544601357</v>
       </c>
       <c r="I9" t="n">
-        <v>1048</v>
+        <v>1245</v>
       </c>
       <c r="J9" t="n">
-        <v>78.03425167535369</v>
+        <v>85.04098360655738</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.303581286841309</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.286874732791791</v>
       </c>
     </row>
     <row r="10">
@@ -763,28 +821,34 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20685</v>
+        <v>23512</v>
       </c>
       <c r="D10" t="n">
-        <v>679</v>
+        <v>740</v>
       </c>
       <c r="E10" t="n">
-        <v>49250</v>
+        <v>60991</v>
       </c>
       <c r="F10" t="n">
-        <v>1866</v>
+        <v>2218</v>
       </c>
       <c r="G10" t="n">
-        <v>28565</v>
+        <v>37479</v>
       </c>
       <c r="H10" t="n">
-        <v>138.0952380952381</v>
+        <v>159.4037087444709</v>
       </c>
       <c r="I10" t="n">
-        <v>1187</v>
+        <v>1478</v>
       </c>
       <c r="J10" t="n">
-        <v>174.8159057437408</v>
+        <v>199.7297297297297</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.147329023477373</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.636602121624502</v>
       </c>
     </row>
     <row r="11">
@@ -797,28 +861,34 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>955377</v>
+        <v>1067579</v>
       </c>
       <c r="D11" t="n">
-        <v>46510</v>
+        <v>49976</v>
       </c>
       <c r="E11" t="n">
-        <v>1884967</v>
+        <v>2118646</v>
       </c>
       <c r="F11" t="n">
-        <v>72833</v>
+        <v>80120</v>
       </c>
       <c r="G11" t="n">
-        <v>929590</v>
+        <v>1051067</v>
       </c>
       <c r="H11" t="n">
-        <v>97.30085610183205</v>
+        <v>98.4533228922637</v>
       </c>
       <c r="I11" t="n">
-        <v>26323</v>
+        <v>30144</v>
       </c>
       <c r="J11" t="n">
-        <v>56.59643087508063</v>
+        <v>60.31695213702577</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.681246071719283</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.781660551125578</v>
       </c>
     </row>
     <row r="12">
@@ -831,28 +901,34 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2605</v>
+        <v>2808</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>4321</v>
+        <v>4561</v>
       </c>
       <c r="F12" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G12" t="n">
-        <v>1716</v>
+        <v>1753</v>
       </c>
       <c r="H12" t="n">
-        <v>65.87332053742803</v>
+        <v>62.42877492877493</v>
       </c>
       <c r="I12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J12" t="n">
-        <v>178.9473684210526</v>
+        <v>139.1304347826087</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.819088319088319</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.205875904406928</v>
       </c>
     </row>
     <row r="13">
@@ -865,28 +941,34 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>225103</v>
+        <v>242355</v>
       </c>
       <c r="D13" t="n">
-        <v>3841</v>
+        <v>4479</v>
       </c>
       <c r="E13" t="n">
-        <v>319493</v>
+        <v>334683</v>
       </c>
       <c r="F13" t="n">
-        <v>7069</v>
+        <v>8677</v>
       </c>
       <c r="G13" t="n">
-        <v>94390</v>
+        <v>92328</v>
       </c>
       <c r="H13" t="n">
-        <v>41.9319156119643</v>
+        <v>38.09618122176147</v>
       </c>
       <c r="I13" t="n">
-        <v>3228</v>
+        <v>4198</v>
       </c>
       <c r="J13" t="n">
-        <v>84.04061442332726</v>
+        <v>93.72627818709533</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.848115367951971</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.592602552265876</v>
       </c>
     </row>
     <row r="14">
@@ -899,28 +981,34 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9864</v>
+        <v>11281</v>
       </c>
       <c r="D14" t="n">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="E14" t="n">
-        <v>15173</v>
+        <v>16522</v>
       </c>
       <c r="F14" t="n">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="G14" t="n">
-        <v>5309</v>
+        <v>5241</v>
       </c>
       <c r="H14" t="n">
-        <v>53.82197891321979</v>
+        <v>46.45864728304228</v>
       </c>
       <c r="I14" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" t="n">
-        <v>30.07246376811594</v>
+        <v>27.33333333333333</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.659338711107171</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.312068756809103</v>
       </c>
     </row>
     <row r="15">
@@ -933,28 +1021,34 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5282</v>
+        <v>5825</v>
       </c>
       <c r="D15" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E15" t="n">
-        <v>8074</v>
+        <v>8533</v>
       </c>
       <c r="F15" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G15" t="n">
-        <v>2792</v>
+        <v>2708</v>
       </c>
       <c r="H15" t="n">
-        <v>52.85876561908368</v>
+        <v>46.4892703862661</v>
       </c>
       <c r="I15" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J15" t="n">
-        <v>62.93103448275862</v>
+        <v>51.16279069767442</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.214592274678111</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.285245517403024</v>
       </c>
     </row>
     <row r="16">
@@ -973,22 +1067,28 @@
         <v>27</v>
       </c>
       <c r="E16" t="n">
-        <v>2222</v>
+        <v>2851</v>
       </c>
       <c r="F16" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>1339</v>
+        <v>1968</v>
       </c>
       <c r="H16" t="n">
-        <v>151.6421291053228</v>
+        <v>222.876557191393</v>
       </c>
       <c r="I16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J16" t="n">
-        <v>74.07407407407408</v>
+        <v>85.18518518518519</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.057757644394111</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.75377060680463</v>
       </c>
     </row>
     <row r="17">
@@ -1001,28 +1101,34 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>57046</v>
+        <v>65633</v>
       </c>
       <c r="D17" t="n">
-        <v>1864</v>
+        <v>2126</v>
       </c>
       <c r="E17" t="n">
-        <v>154277</v>
+        <v>204005</v>
       </c>
       <c r="F17" t="n">
-        <v>5455</v>
+        <v>6929</v>
       </c>
       <c r="G17" t="n">
-        <v>97231</v>
+        <v>138372</v>
       </c>
       <c r="H17" t="n">
-        <v>170.4431511411843</v>
+        <v>210.8268706291043</v>
       </c>
       <c r="I17" t="n">
-        <v>3591</v>
+        <v>4803</v>
       </c>
       <c r="J17" t="n">
-        <v>192.6502145922747</v>
+        <v>225.9172154280339</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.239224170767754</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.396485380260287</v>
       </c>
     </row>
     <row r="18">
@@ -1035,28 +1141,34 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1871</v>
+        <v>2127</v>
       </c>
       <c r="D18" t="n">
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>8036</v>
+        <v>11534</v>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G18" t="n">
-        <v>6165</v>
+        <v>9407</v>
       </c>
       <c r="H18" t="n">
-        <v>329.5029396044896</v>
+        <v>442.2661024917725</v>
       </c>
       <c r="I18" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J18" t="n">
-        <v>158.3333333333333</v>
+        <v>450</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.5641748942172073</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5722212588867696</v>
       </c>
     </row>
     <row r="19">
@@ -1075,22 +1187,28 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>13.04347826086956</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="20">
@@ -1103,28 +1221,34 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4557</v>
+        <v>4582</v>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
-        <v>4977</v>
+        <v>5027</v>
       </c>
       <c r="F20" t="n">
         <v>56</v>
       </c>
       <c r="G20" t="n">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="H20" t="n">
-        <v>9.216589861751153</v>
+        <v>9.711916193801834</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>30.23255813953488</v>
+        <v>24.44444444444444</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9821038847664776</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.113984483787547</v>
       </c>
     </row>
     <row r="21">
@@ -1137,28 +1261,34 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24645</v>
+        <v>26677</v>
       </c>
       <c r="D21" t="n">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="E21" t="n">
-        <v>46305</v>
+        <v>54797</v>
       </c>
       <c r="F21" t="n">
-        <v>910</v>
+        <v>999</v>
       </c>
       <c r="G21" t="n">
-        <v>21660</v>
+        <v>28120</v>
       </c>
       <c r="H21" t="n">
-        <v>87.88800973828363</v>
+        <v>105.4091539528433</v>
       </c>
       <c r="I21" t="n">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="J21" t="n">
-        <v>43.30708661417323</v>
+        <v>50.90634441087614</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.481538403868501</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.823092505064146</v>
       </c>
     </row>
     <row r="22">
@@ -1171,28 +1301,34 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>49097</v>
+        <v>50640</v>
       </c>
       <c r="D22" t="n">
-        <v>4087</v>
+        <v>4223</v>
       </c>
       <c r="E22" t="n">
-        <v>69570</v>
+        <v>76217</v>
       </c>
       <c r="F22" t="n">
-        <v>5130</v>
+        <v>5366</v>
       </c>
       <c r="G22" t="n">
-        <v>20473</v>
+        <v>25577</v>
       </c>
       <c r="H22" t="n">
-        <v>41.69908548383812</v>
+        <v>50.50750394944708</v>
       </c>
       <c r="I22" t="n">
-        <v>1043</v>
+        <v>1143</v>
       </c>
       <c r="J22" t="n">
-        <v>25.51994127722045</v>
+        <v>27.06606677717263</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8.339257503949447</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7.040424052376766</v>
       </c>
     </row>
     <row r="23">
@@ -1205,28 +1341,34 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>50437</v>
+        <v>55233</v>
       </c>
       <c r="D23" t="n">
-        <v>1938</v>
+        <v>2193</v>
       </c>
       <c r="E23" t="n">
-        <v>83001</v>
+        <v>89078</v>
       </c>
       <c r="F23" t="n">
-        <v>3935</v>
+        <v>4399</v>
       </c>
       <c r="G23" t="n">
-        <v>32564</v>
+        <v>33845</v>
       </c>
       <c r="H23" t="n">
-        <v>64.56371314709439</v>
+        <v>61.27677294371119</v>
       </c>
       <c r="I23" t="n">
-        <v>1997</v>
+        <v>2206</v>
       </c>
       <c r="J23" t="n">
-        <v>103.0443756449948</v>
+        <v>100.5927952576379</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.970452446906741</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.938368620759335</v>
       </c>
     </row>
     <row r="24">
@@ -1239,28 +1381,34 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3954</v>
+        <v>4532</v>
       </c>
       <c r="D24" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E24" t="n">
-        <v>7969</v>
+        <v>11072</v>
       </c>
       <c r="F24" t="n">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="G24" t="n">
-        <v>4015</v>
+        <v>6540</v>
       </c>
       <c r="H24" t="n">
-        <v>101.542741527567</v>
+        <v>144.3071491615181</v>
       </c>
       <c r="I24" t="n">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="J24" t="n">
-        <v>113.8461538461538</v>
+        <v>143.2432432432433</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.632833186231244</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.625722543352601</v>
       </c>
     </row>
     <row r="25">
@@ -1279,22 +1427,28 @@
         <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="n">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="H25" t="n">
-        <v>63.9344262295082</v>
+        <v>84.15300546448088</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>41.66666666666667</v>
+        <v>58.33333333333334</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6.557377049180328</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.637982195845697</v>
       </c>
     </row>
     <row r="26">
@@ -1303,32 +1457,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>H25</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4688</v>
+        <v>238110</v>
       </c>
       <c r="D26" t="n">
-        <v>82</v>
+        <v>7243</v>
       </c>
       <c r="E26" t="n">
-        <v>6727</v>
+        <v>535494</v>
       </c>
       <c r="F26" t="n">
-        <v>141</v>
+        <v>17288</v>
       </c>
       <c r="G26" t="n">
-        <v>2039</v>
+        <v>297384</v>
       </c>
       <c r="H26" t="n">
-        <v>43.49402730375427</v>
+        <v>124.8935366007308</v>
       </c>
       <c r="I26" t="n">
-        <v>59</v>
+        <v>10045</v>
       </c>
       <c r="J26" t="n">
-        <v>71.95121951219512</v>
+        <v>138.6856275024161</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.041871403972953</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.228420859990962</v>
       </c>
     </row>
     <row r="27">
@@ -1337,32 +1497,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>H63</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>197647</v>
+        <v>2938391</v>
       </c>
       <c r="D27" t="n">
-        <v>9272</v>
+        <v>120912</v>
       </c>
       <c r="E27" t="n">
-        <v>259652</v>
+        <v>5268662</v>
       </c>
       <c r="F27" t="n">
-        <v>13032</v>
+        <v>206823</v>
       </c>
       <c r="G27" t="n">
-        <v>62005</v>
+        <v>2330271</v>
       </c>
       <c r="H27" t="n">
-        <v>31.37158671773414</v>
+        <v>79.30431994925114</v>
       </c>
       <c r="I27" t="n">
-        <v>3760</v>
+        <v>85911</v>
       </c>
       <c r="J27" t="n">
-        <v>40.55220017256255</v>
+        <v>71.05250099245733</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.114905061988006</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.925531757398747</v>
       </c>
     </row>
     <row r="28">
@@ -1371,32 +1537,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25717</v>
+        <v>5077</v>
       </c>
       <c r="D28" t="n">
-        <v>856</v>
+        <v>88</v>
       </c>
       <c r="E28" t="n">
-        <v>79735</v>
+        <v>7100</v>
       </c>
       <c r="F28" t="n">
-        <v>3250</v>
+        <v>151</v>
       </c>
       <c r="G28" t="n">
-        <v>54018</v>
+        <v>2023</v>
       </c>
       <c r="H28" t="n">
-        <v>210.0478282847922</v>
+        <v>39.84636596415206</v>
       </c>
       <c r="I28" t="n">
-        <v>2394</v>
+        <v>63</v>
       </c>
       <c r="J28" t="n">
-        <v>279.6728971962617</v>
+        <v>71.59090909090909</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.733307071104983</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.126760563380282</v>
       </c>
     </row>
     <row r="29">
@@ -1405,32 +1577,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>IRN</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1001</v>
+        <v>204952</v>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>9623</v>
       </c>
       <c r="E29" t="n">
-        <v>1183</v>
+        <v>278827</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>14634</v>
       </c>
       <c r="G29" t="n">
-        <v>182</v>
+        <v>73875</v>
       </c>
       <c r="H29" t="n">
-        <v>18.18181818181818</v>
+        <v>36.04502517662672</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>5011</v>
       </c>
       <c r="J29" t="n">
-        <v>11.11111111111111</v>
+        <v>52.07315805881741</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.695245716070104</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.248415684277347</v>
       </c>
     </row>
     <row r="30">
@@ -1439,32 +1617,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IRQ</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4257</v>
+        <v>30868</v>
       </c>
       <c r="D30" t="n">
-        <v>117</v>
+        <v>1100</v>
       </c>
       <c r="E30" t="n">
-        <v>10294</v>
+        <v>97159</v>
       </c>
       <c r="F30" t="n">
-        <v>197</v>
+        <v>3950</v>
       </c>
       <c r="G30" t="n">
-        <v>6037</v>
+        <v>66291</v>
       </c>
       <c r="H30" t="n">
-        <v>141.8134836739488</v>
+        <v>214.7563820137359</v>
       </c>
       <c r="I30" t="n">
-        <v>80</v>
+        <v>2850</v>
       </c>
       <c r="J30" t="n">
-        <v>68.37606837606837</v>
+        <v>259.0909090909091</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.563560969288584</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.065500880000823</v>
       </c>
     </row>
     <row r="31">
@@ -1473,32 +1657,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1495</v>
+        <v>1033</v>
       </c>
       <c r="D31" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>2419</v>
+        <v>1269</v>
       </c>
       <c r="F31" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>924</v>
+        <v>236</v>
       </c>
       <c r="H31" t="n">
-        <v>61.80602006688963</v>
+        <v>22.84607938044531</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5</v>
+        <v>22.22222222222222</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8712487899322363</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.8668242710795903</v>
       </c>
     </row>
     <row r="32">
@@ -1507,32 +1697,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LBR</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>542</v>
+        <v>4738</v>
       </c>
       <c r="D32" t="n">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="E32" t="n">
-        <v>1024</v>
+        <v>14168</v>
       </c>
       <c r="F32" t="n">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="G32" t="n">
-        <v>482</v>
+        <v>9430</v>
       </c>
       <c r="H32" t="n">
-        <v>88.92988929889299</v>
+        <v>199.0291262135922</v>
       </c>
       <c r="I32" t="n">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="J32" t="n">
-        <v>54.54545454545454</v>
+        <v>103.2520325203252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.596032081046855</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.764539808018069</v>
       </c>
     </row>
     <row r="33">
@@ -1541,32 +1737,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>LBN</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>510</v>
+        <v>1587</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>1512</v>
+        <v>2980</v>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33" t="n">
-        <v>1002</v>
+        <v>1393</v>
       </c>
       <c r="H33" t="n">
-        <v>196.4705882352941</v>
+        <v>87.77567737870196</v>
       </c>
       <c r="I33" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J33" t="n">
-        <v>300</v>
+        <v>28.125</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.01638311279143</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.375838926174497</v>
       </c>
     </row>
     <row r="34">
@@ -1575,32 +1777,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>LBR</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>159793</v>
+        <v>626</v>
       </c>
       <c r="D34" t="n">
-        <v>19080</v>
+        <v>34</v>
       </c>
       <c r="E34" t="n">
-        <v>304435</v>
+        <v>1108</v>
       </c>
       <c r="F34" t="n">
-        <v>35491</v>
+        <v>70</v>
       </c>
       <c r="G34" t="n">
-        <v>144642</v>
+        <v>482</v>
       </c>
       <c r="H34" t="n">
-        <v>90.51835812582529</v>
+        <v>76.99680511182109</v>
       </c>
       <c r="I34" t="n">
-        <v>16411</v>
+        <v>36</v>
       </c>
       <c r="J34" t="n">
-        <v>86.01153039832286</v>
+        <v>105.8823529411765</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.431309904153355</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6.31768953068592</v>
       </c>
     </row>
     <row r="35">
@@ -1609,32 +1817,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>LBY</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1906</v>
+        <v>571</v>
       </c>
       <c r="D35" t="n">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>2412</v>
+        <v>2088</v>
       </c>
       <c r="F35" t="n">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="G35" t="n">
-        <v>506</v>
+        <v>1517</v>
       </c>
       <c r="H35" t="n">
-        <v>26.54774396642183</v>
+        <v>265.6742556917688</v>
       </c>
       <c r="I35" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="J35" t="n">
-        <v>13.08411214953271</v>
+        <v>400</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.751313485113835</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.394636015325671</v>
       </c>
     </row>
     <row r="36">
@@ -1643,32 +1857,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>286</v>
+        <v>175202</v>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>20781</v>
       </c>
       <c r="E36" t="n">
-        <v>336</v>
+        <v>349396</v>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>39485</v>
       </c>
       <c r="G36" t="n">
-        <v>50</v>
+        <v>174194</v>
       </c>
       <c r="H36" t="n">
-        <v>17.48251748251748</v>
+        <v>99.42466410200797</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18704</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>90.00529329676147</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11.86116596842502</v>
+      </c>
+      <c r="L36" t="n">
+        <v>11.3009307490641</v>
       </c>
     </row>
     <row r="37">
@@ -1677,32 +1897,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>662</v>
+        <v>1961</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="E37" t="n">
-        <v>1219</v>
+        <v>2477</v>
       </c>
       <c r="F37" t="n">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="G37" t="n">
-        <v>557</v>
+        <v>516</v>
       </c>
       <c r="H37" t="n">
-        <v>84.13897280966768</v>
+        <v>26.31310555838858</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J37" t="n">
-        <v>125</v>
+        <v>9.90990990990991</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.660377358490567</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.925312878482035</v>
       </c>
     </row>
     <row r="38">
@@ -1711,32 +1937,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1020</v>
+        <v>290</v>
       </c>
       <c r="D38" t="n">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>1099</v>
+        <v>341</v>
       </c>
       <c r="F38" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H38" t="n">
-        <v>7.745098039215686</v>
+        <v>17.58620689655172</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.492537313432836</v>
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.068965517241379</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.759530791788857</v>
       </c>
     </row>
     <row r="39">
@@ -1745,32 +1977,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>18480</v>
+        <v>733</v>
       </c>
       <c r="D39" t="n">
-        <v>475</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>33153</v>
+        <v>1536</v>
       </c>
       <c r="F39" t="n">
-        <v>744</v>
+        <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>14673</v>
+        <v>803</v>
       </c>
       <c r="H39" t="n">
-        <v>79.39935064935065</v>
+        <v>109.549795361528</v>
       </c>
       <c r="I39" t="n">
-        <v>269</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>56.63157894736842</v>
+        <v>120</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.6821282401091405</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.7161458333333333</v>
       </c>
     </row>
     <row r="40">
@@ -1779,32 +2017,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>165062</v>
+        <v>1036</v>
       </c>
       <c r="D40" t="n">
-        <v>3229</v>
+        <v>67</v>
       </c>
       <c r="E40" t="n">
-        <v>253604</v>
+        <v>1108</v>
       </c>
       <c r="F40" t="n">
-        <v>5320</v>
+        <v>69</v>
       </c>
       <c r="G40" t="n">
-        <v>88542</v>
+        <v>72</v>
       </c>
       <c r="H40" t="n">
-        <v>53.64166192097515</v>
+        <v>6.94980694980695</v>
       </c>
       <c r="I40" t="n">
-        <v>2091</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>64.75689067822856</v>
+        <v>2.985074626865671</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6.467181467181467</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6.227436823104693</v>
       </c>
     </row>
     <row r="41">
@@ -1813,32 +2057,38 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>22597</v>
+        <v>20244</v>
       </c>
       <c r="D41" t="n">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="E41" t="n">
-        <v>47173</v>
+        <v>37801</v>
       </c>
       <c r="F41" t="n">
-        <v>932</v>
+        <v>805</v>
       </c>
       <c r="G41" t="n">
-        <v>24576</v>
+        <v>17557</v>
       </c>
       <c r="H41" t="n">
-        <v>108.7577997079258</v>
+        <v>86.72693143647501</v>
       </c>
       <c r="I41" t="n">
-        <v>462</v>
+        <v>287</v>
       </c>
       <c r="J41" t="n">
-        <v>98.29787234042553</v>
+        <v>55.4054054054054</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.558782849239281</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.129573291711859</v>
       </c>
     </row>
     <row r="42">
@@ -1847,32 +2097,38 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>240908</v>
+        <v>181088</v>
       </c>
       <c r="D42" t="n">
-        <v>7257</v>
+        <v>3590</v>
       </c>
       <c r="E42" t="n">
-        <v>330123</v>
+        <v>267428</v>
       </c>
       <c r="F42" t="n">
-        <v>12054</v>
+        <v>5677</v>
       </c>
       <c r="G42" t="n">
-        <v>89215</v>
+        <v>86340</v>
       </c>
       <c r="H42" t="n">
-        <v>37.03280920517376</v>
+        <v>47.67847676267892</v>
       </c>
       <c r="I42" t="n">
-        <v>4797</v>
+        <v>2087</v>
       </c>
       <c r="J42" t="n">
-        <v>66.10169491525424</v>
+        <v>58.13370473537604</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.982461565647641</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.122814364987959</v>
       </c>
     </row>
     <row r="43">
@@ -1881,32 +2137,38 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>27799</v>
+        <v>25222</v>
       </c>
       <c r="D43" t="n">
-        <v>1116</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>57545</v>
+        <v>54426</v>
       </c>
       <c r="F43" t="n">
-        <v>1603</v>
+        <v>1127</v>
       </c>
       <c r="G43" t="n">
-        <v>29746</v>
+        <v>29204</v>
       </c>
       <c r="H43" t="n">
-        <v>107.0038490593187</v>
+        <v>115.7878042978352</v>
       </c>
       <c r="I43" t="n">
-        <v>487</v>
+        <v>634</v>
       </c>
       <c r="J43" t="n">
-        <v>43.63799283154122</v>
+        <v>128.6004056795132</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.954642772183015</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2.070701502958145</v>
       </c>
     </row>
     <row r="44">
@@ -1915,32 +2177,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PRY</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1330</v>
+        <v>251338</v>
       </c>
       <c r="D44" t="n">
-        <v>13</v>
+        <v>7861</v>
       </c>
       <c r="E44" t="n">
-        <v>2980</v>
+        <v>357681</v>
       </c>
       <c r="F44" t="n">
-        <v>25</v>
+        <v>13384</v>
       </c>
       <c r="G44" t="n">
-        <v>1650</v>
+        <v>106343</v>
       </c>
       <c r="H44" t="n">
-        <v>124.0601503759399</v>
+        <v>42.31075285074282</v>
       </c>
       <c r="I44" t="n">
-        <v>12</v>
+        <v>5523</v>
       </c>
       <c r="J44" t="n">
-        <v>92.30769230769231</v>
+        <v>70.25823686553873</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.127660759614543</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.74188173260531</v>
       </c>
     </row>
     <row r="45">
@@ -1949,32 +2217,38 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>795</v>
+        <v>30052</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>1169</v>
       </c>
       <c r="E45" t="n">
-        <v>7441</v>
+        <v>70764</v>
       </c>
       <c r="F45" t="n">
-        <v>41</v>
+        <v>1837</v>
       </c>
       <c r="G45" t="n">
-        <v>6646</v>
+        <v>40712</v>
       </c>
       <c r="H45" t="n">
-        <v>835.9748427672956</v>
+        <v>135.4718487954213</v>
       </c>
       <c r="I45" t="n">
-        <v>36</v>
+        <v>668</v>
       </c>
       <c r="J45" t="n">
-        <v>720</v>
+        <v>57.14285714285714</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.889924131505391</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2.595952744333277</v>
       </c>
     </row>
     <row r="46">
@@ -1983,32 +2257,38 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>PRY</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>646</v>
+        <v>1379</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E46" t="n">
-        <v>1378</v>
+        <v>3748</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G46" t="n">
-        <v>732</v>
+        <v>2369</v>
       </c>
       <c r="H46" t="n">
-        <v>113.312693498452</v>
+        <v>171.7911530094271</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J46" t="n">
-        <v>100</v>
+        <v>153.8461538461539</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9427121102248005</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.8804695837780149</v>
       </c>
     </row>
     <row r="47">
@@ -2017,32 +2297,38 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>8020</v>
+        <v>1028</v>
       </c>
       <c r="D47" t="n">
-        <v>487</v>
+        <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>10316</v>
+        <v>10923</v>
       </c>
       <c r="F47" t="n">
-        <v>657</v>
+        <v>67</v>
       </c>
       <c r="G47" t="n">
-        <v>2296</v>
+        <v>9895</v>
       </c>
       <c r="H47" t="n">
-        <v>28.6284289276808</v>
+        <v>962.5486381322958</v>
       </c>
       <c r="I47" t="n">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="J47" t="n">
-        <v>34.90759753593429</v>
+        <v>1240</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.4863813229571984</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.6133846013000092</v>
       </c>
     </row>
     <row r="48">
@@ -2051,32 +2337,38 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SLE</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1272</v>
+        <v>728</v>
       </c>
       <c r="D48" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>1642</v>
+        <v>1655</v>
       </c>
       <c r="F48" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>370</v>
+        <v>927</v>
       </c>
       <c r="H48" t="n">
-        <v>29.08805031446541</v>
+        <v>127.3351648351648</v>
       </c>
       <c r="I48" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>23.52941176470588</v>
+        <v>150</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2747252747252747</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.3021148036253776</v>
       </c>
     </row>
     <row r="49">
@@ -2085,32 +2377,38 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2719</v>
+        <v>8580</v>
       </c>
       <c r="D49" t="n">
-        <v>88</v>
+        <v>521</v>
       </c>
       <c r="E49" t="n">
-        <v>3072</v>
+        <v>11127</v>
       </c>
       <c r="F49" t="n">
-        <v>93</v>
+        <v>706</v>
       </c>
       <c r="G49" t="n">
-        <v>353</v>
+        <v>2547</v>
       </c>
       <c r="H49" t="n">
-        <v>12.98271423317396</v>
+        <v>29.68531468531468</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="J49" t="n">
-        <v>5.681818181818182</v>
+        <v>35.50863723608445</v>
+      </c>
+      <c r="K49" t="n">
+        <v>6.072261072261073</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6.344926754740721</v>
       </c>
     </row>
     <row r="50">
@@ -2119,32 +2417,38 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1813</v>
+        <v>1327</v>
       </c>
       <c r="D50" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E50" t="n">
-        <v>2148</v>
+        <v>1727</v>
       </c>
       <c r="F50" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="G50" t="n">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="H50" t="n">
-        <v>18.47766133480419</v>
+        <v>30.14318010550113</v>
       </c>
       <c r="I50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J50" t="n">
-        <v>32.25806451612903</v>
+        <v>20</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.144687264506405</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.821656050955414</v>
       </c>
     </row>
     <row r="51">
@@ -2153,32 +2457,38 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SYR</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>187</v>
+        <v>2779</v>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="E51" t="n">
-        <v>417</v>
+        <v>3135</v>
       </c>
       <c r="F51" t="n">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="G51" t="n">
-        <v>230</v>
+        <v>356</v>
       </c>
       <c r="H51" t="n">
-        <v>122.9946524064171</v>
+        <v>12.81036344008636</v>
       </c>
       <c r="I51" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>171.4285714285714</v>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.238575026988125</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2.966507177033493</v>
       </c>
     </row>
     <row r="52">
@@ -2187,32 +2497,38 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>854</v>
+        <v>1882</v>
       </c>
       <c r="D52" t="n">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E52" t="n">
-        <v>880</v>
+        <v>2211</v>
       </c>
       <c r="F52" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G52" t="n">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="H52" t="n">
-        <v>3.044496487119438</v>
+        <v>17.48140276301807</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J52" t="n">
-        <v>1.351351351351351</v>
+        <v>32.35294117647059</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.806588735387885</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2.03527815468114</v>
       </c>
     </row>
     <row r="53">
@@ -2221,32 +2537,38 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>SYR</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>544</v>
+        <v>204</v>
       </c>
       <c r="D53" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="F53" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G53" t="n">
-        <v>176</v>
+        <v>336</v>
       </c>
       <c r="H53" t="n">
-        <v>32.35294117647059</v>
+        <v>164.7058823529412</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J53" t="n">
-        <v>15.38461538461539</v>
+        <v>342.8571428571428</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.431372549019608</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5.74074074074074</v>
       </c>
     </row>
     <row r="54">
@@ -2255,32 +2577,38 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>123</v>
+        <v>858</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E54" t="n">
-        <v>133</v>
+        <v>889</v>
       </c>
       <c r="F54" t="n">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="G54" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H54" t="n">
-        <v>8.130081300813007</v>
+        <v>3.613053613053613</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1.351351351351351</v>
+      </c>
+      <c r="K54" t="n">
+        <v>8.624708624708624</v>
+      </c>
+      <c r="L54" t="n">
+        <v>8.43644544431946</v>
       </c>
     </row>
     <row r="55">
@@ -2289,32 +2617,38 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>184031</v>
+        <v>569</v>
       </c>
       <c r="D55" t="n">
-        <v>4882</v>
+        <v>13</v>
       </c>
       <c r="E55" t="n">
-        <v>214001</v>
+        <v>790</v>
       </c>
       <c r="F55" t="n">
-        <v>5382</v>
+        <v>15</v>
       </c>
       <c r="G55" t="n">
-        <v>29970</v>
+        <v>221</v>
       </c>
       <c r="H55" t="n">
-        <v>16.28529975927969</v>
+        <v>38.84007029876977</v>
       </c>
       <c r="I55" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>10.24170421958214</v>
+        <v>15.38461538461539</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.284710017574692</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.89873417721519</v>
       </c>
     </row>
     <row r="56">
@@ -2323,32 +2657,38 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>TTO</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>509</v>
+        <v>123</v>
       </c>
       <c r="D56" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>509</v>
+        <v>137</v>
       </c>
       <c r="F56" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>11.38211382113821</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>6.504065040650407</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5.839416058394161</v>
       </c>
     </row>
     <row r="57">
@@ -2357,31 +2697,39 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>823</v>
+        <v>187685</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>4950</v>
       </c>
       <c r="E57" t="n">
-        <v>1029</v>
+        <v>221500</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>5526</v>
       </c>
       <c r="G57" t="n">
-        <v>206</v>
+        <v>33815</v>
       </c>
       <c r="H57" t="n">
-        <v>25.03037667071689</v>
+        <v>18.01689000186483</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>576</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11.63636363636364</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.637397767536031</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2.494808126410835</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2389,32 +2737,38 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>34984</v>
+        <v>509</v>
       </c>
       <c r="D58" t="n">
-        <v>985</v>
+        <v>21</v>
       </c>
       <c r="E58" t="n">
-        <v>54771</v>
+        <v>509</v>
       </c>
       <c r="F58" t="n">
-        <v>1412</v>
+        <v>21</v>
       </c>
       <c r="G58" t="n">
-        <v>19787</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>56.56014177909901</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>43.3502538071066</v>
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4.12573673870334</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4.12573673870334</v>
       </c>
     </row>
     <row r="59">
@@ -2423,32 +2777,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>849</v>
+        <v>755</v>
       </c>
       <c r="D59" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>989</v>
+        <v>1072</v>
       </c>
       <c r="F59" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>140</v>
+        <v>317</v>
       </c>
       <c r="H59" t="n">
-        <v>16.48998822143698</v>
+        <v>41.98675496688742</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>29.16666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2457,32 +2815,38 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3386</v>
+        <v>37241</v>
       </c>
       <c r="D60" t="n">
-        <v>28</v>
+        <v>1012</v>
       </c>
       <c r="E60" t="n">
-        <v>9707</v>
+        <v>60995</v>
       </c>
       <c r="F60" t="n">
-        <v>93</v>
+        <v>1534</v>
       </c>
       <c r="G60" t="n">
-        <v>6321</v>
+        <v>23754</v>
       </c>
       <c r="H60" t="n">
-        <v>186.6804489072652</v>
+        <v>63.78453854622593</v>
       </c>
       <c r="I60" t="n">
-        <v>65</v>
+        <v>522</v>
       </c>
       <c r="J60" t="n">
-        <v>232.1428571428572</v>
+        <v>51.58102766798419</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2.717435084986977</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2.514960242642839</v>
       </c>
     </row>
     <row r="61">
@@ -2491,32 +2855,38 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>URY</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>913</v>
+        <v>859</v>
       </c>
       <c r="D61" t="n">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="E61" t="n">
-        <v>1502</v>
+        <v>1064</v>
       </c>
       <c r="F61" t="n">
-        <v>425</v>
+        <v>33</v>
       </c>
       <c r="G61" t="n">
-        <v>589</v>
+        <v>205</v>
       </c>
       <c r="H61" t="n">
-        <v>64.51259583789705</v>
+        <v>23.86495925494761</v>
       </c>
       <c r="I61" t="n">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="J61" t="n">
-        <v>70.68273092369478</v>
+        <v>32</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2.910360884749709</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3.101503759398496</v>
       </c>
     </row>
     <row r="62">
@@ -2525,32 +2895,38 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>VEN</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1416</v>
+        <v>3790</v>
       </c>
       <c r="D62" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E62" t="n">
-        <v>2283</v>
+        <v>12334</v>
       </c>
       <c r="F62" t="n">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G62" t="n">
-        <v>867</v>
+        <v>8544</v>
       </c>
       <c r="H62" t="n">
-        <v>61.22881355932203</v>
+        <v>225.4353562005277</v>
       </c>
       <c r="I62" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J62" t="n">
-        <v>645.4545454545454</v>
+        <v>251.5151515151515</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.8707124010554089</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.9404897032592834</v>
       </c>
     </row>
     <row r="63">
@@ -2559,32 +2935,118 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>YEM</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>945</v>
+      </c>
+      <c r="D63" t="n">
+        <v>257</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F63" t="n">
+        <v>457</v>
+      </c>
+      <c r="G63" t="n">
+        <v>688</v>
+      </c>
+      <c r="H63" t="n">
+        <v>72.80423280423281</v>
+      </c>
+      <c r="I63" t="n">
+        <v>200</v>
+      </c>
+      <c r="J63" t="n">
+        <v>77.82101167315176</v>
+      </c>
+      <c r="K63" t="n">
+        <v>27.1957671957672</v>
+      </c>
+      <c r="L63" t="n">
+        <v>27.98530312308634</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D64" t="n">
+        <v>11</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3326</v>
+      </c>
+      <c r="F64" t="n">
+        <v>128</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1896</v>
+      </c>
+      <c r="H64" t="n">
+        <v>132.5874125874126</v>
+      </c>
+      <c r="I64" t="n">
+        <v>117</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1063.636363636364</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3.848466626578473</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>ZWE</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>463</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1034</v>
-      </c>
-      <c r="F63" t="n">
-        <v>19</v>
-      </c>
-      <c r="G63" t="n">
-        <v>571</v>
-      </c>
-      <c r="H63" t="n">
-        <v>123.3261339092873</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15</v>
-      </c>
-      <c r="J63" t="n">
-        <v>375</v>
+      <c r="C65" t="n">
+        <v>489</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1820</v>
+      </c>
+      <c r="F65" t="n">
+        <v>26</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1331</v>
+      </c>
+      <c r="H65" t="n">
+        <v>272.1881390593047</v>
+      </c>
+      <c r="I65" t="n">
+        <v>20</v>
+      </c>
+      <c r="J65" t="n">
+        <v>333.3333333333334</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.226993865030675</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.428571428571429</v>
       </c>
     </row>
   </sheetData>
